--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -190,54 +256,54 @@
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="14.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29161102731790306</v>
+        <v>0.29069871425290911</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.34189351190580214</v>
+        <v>0.34121197625062144</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.011317383009889935</v>
+        <v>0.011310990176631001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00033887029360462278</v>
+        <v>0.00034642130054612241</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0030362338338959308</v>
+        <v>0.0030496675898262896</v>
       </c>
       <c r="G3" s="0">
-        <v>0.010121625184002529</v>
+        <v>0.010174587310235189</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.1046361508084802e-05</v>
+        <v>-9.2300357724374855e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.025892859701430425</v>
+        <v>0.026057335300482827</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00033344107341626295</v>
+        <v>-0.00033343932228474538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29561090039712506</v>
+        <v>0.29333216622073111</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.01518900525961963</v>
+        <v>-0.017104158159779077</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0017766228032640898</v>
+        <v>-0.0017585313786715245</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00029461434143536545</v>
+        <v>-0.00029342942693533891</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.0020880465273196403</v>
+        <v>-0.0020836370517838673</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.027567249193911118</v>
+        <v>-0.027274543569465844</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00024460930474888543</v>
+        <v>0.00024616702528942712</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00038831731212390919</v>
+        <v>0.00038832253145587581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2878914297963836</v>
+        <v>0.28812702667753687</v>
       </c>
       <c r="C5" s="0">
-        <v>0.054761108158852725</v>
+        <v>0.057282445160034806</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.023501112576943376</v>
+        <v>-0.023742352443871618</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00036595055728164171</v>
+        <v>-0.00037726424627502943</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012238459147242503</v>
+        <v>0.012384147202562912</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.057264513806889621</v>
+        <v>-0.057178254911701559</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00018078193142136953</v>
+        <v>-0.00017462230939389124</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0065350613085370596</v>
+        <v>0.0065425181907420443</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.8259657162273992e-05</v>
+        <v>5.8243814708092145e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.42869658476118155</v>
+        <v>0.42962805656564856</v>
       </c>
       <c r="C6" s="0">
-        <v>0.19099235691908498</v>
+        <v>0.19235491685294634</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0092150327551861581</v>
+        <v>0.0092022520692976052</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00066014019327568531</v>
+        <v>0.00066186880788153882</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00060137293766600406</v>
+        <v>0.00060815822848008622</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.060696674453315058</v>
+        <v>-0.0613590509545704</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>3.2926612900219254e-05</v>
+        <v>3.2884884076489485e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.37657407068417897</v>
+        <v>0.37702946969112072</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.066584226846583688</v>
+        <v>-0.066765693806821333</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0044333937440082507</v>
+        <v>0.0044190641709149735</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0092661390403144216</v>
+        <v>-0.0095670748713542787</v>
       </c>
       <c r="G7" s="0">
-        <v>0.01256805779215503</v>
+        <v>0.012600386232878935</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0038376496193809921</v>
+        <v>0.0038259705837035479</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0028887506543512353</v>
+        <v>0.0028887608161503042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.2199733406209114</v>
+        <v>0.2217036530838096</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.12755190382516388</v>
+        <v>-0.1269016499594095</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.013310419622300602</v>
+        <v>-0.013249514101887998</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.013409389743612974</v>
+        <v>-0.013405984935775989</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>2.6351862576752137e-05</v>
+        <v>2.7099098430844305e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.0038111847416203715</v>
+        <v>-0.0032516369111496284</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0014558160068534609</v>
+        <v>0.0014558702024811687</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.21658189856316673</v>
+        <v>-0.21689696575503065</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.21618295217260816</v>
+        <v>-0.21710824991852384</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0057175945122238036</v>
+        <v>0.0057152482250201822</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.21480036394866417</v>
+        <v>-0.21587833737314274</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0092875911299433109</v>
+        <v>-0.0093090988318161663</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0025935171478672419</v>
+        <v>-0.0026131689758155038</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0002316694760212581</v>
+        <v>-0.00023028997519626082</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0008232601788021876</v>
+        <v>0.00082327801063411532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.058872151195978994</v>
+        <v>-0.051221557401531226</v>
       </c>
       <c r="C10" s="0">
-        <v>0.16739063387611908</v>
+        <v>0.17591547779815081</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00070198119752108625</v>
+        <v>0.0006633848233777908</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0030549161873732415</v>
+        <v>0.0030235751490439201</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00058646633124415537</v>
+        <v>-0.0005863770230990097</v>
       </c>
       <c r="I10" s="0">
-        <v>0.03883524860944261</v>
+        <v>0.038593623075195357</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.063428779874087154</v>
+        <v>-0.063676528513595176</v>
       </c>
       <c r="K10" s="0">
-        <v>0.01174221370206302</v>
+        <v>0.011742253044425749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.38284453008768304</v>
+        <v>0.38896315661451591</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.43787929788730778</v>
+        <v>0.4366445802498935</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.011206784098238111</v>
+        <v>-0.011196862766811954</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.036394488127285879</v>
+        <v>-0.036876227829304033</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.031588039988318127</v>
+        <v>-0.031698183146630615</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.001069279041378507</v>
+        <v>-0.0010641234879140346</v>
       </c>
       <c r="I11" s="0">
-        <v>0.062537279555765046</v>
+        <v>0.062816798587741168</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.021558695095809877</v>
+        <v>0.021558732409073134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.32530668672555629</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.025919669457066141</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.00031962974601958301</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.00071184677493586225</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.0003810676207830869</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.042200396867423828</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.045963198336863409</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,16 +388,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.24609375" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="14.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29069871425290911</v>
+        <v>0.28881812089211062</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.34121197625062144</v>
+        <v>0.33976728133153522</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.011310990176631001</v>
+        <v>0.011405836240108715</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00034642130054612241</v>
+        <v>0.00034267670469982869</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0030496675898262896</v>
+        <v>0.0030105403642845968</v>
       </c>
       <c r="G3" s="0">
-        <v>0.010174587310235189</v>
+        <v>0.010298089134802305</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.2300357724374855e-05</v>
+        <v>-8.9866790721518898e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.026057335300482827</v>
+        <v>0.02631532899216929</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00033343932228474538</v>
+        <v>-0.00033344420591863155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29333216622073111</v>
+        <v>0.29302903207455167</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.017104158159779077</v>
+        <v>-0.016593442985655939</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0017585313786715245</v>
+        <v>-0.0017531043915176934</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00029342942693533891</v>
+        <v>-0.00029159010523983729</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.0020836370517838673</v>
+        <v>-0.0020587174004638525</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.027274543569465844</v>
+        <v>-0.026676134644506314</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00024616702528942712</v>
+        <v>0.00024646206851433388</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00038832253145587581</v>
+        <v>0.00038827820188575002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28812702667753687</v>
+        <v>0.28707722456222295</v>
       </c>
       <c r="C5" s="0">
-        <v>0.057282445160034806</v>
+        <v>0.055981095004044155</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.023742352443871618</v>
+        <v>-0.023401688621220194</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00037726424627502943</v>
+        <v>-0.00036585013066743122</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012384147202562912</v>
+        <v>0.012573748910098392</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.057178254911701559</v>
+        <v>-0.057193873155113387</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00017462230939389124</v>
+        <v>-0.00018584188525924147</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0065425181907420443</v>
+        <v>0.0065823634020911069</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.8243814708092145e-05</v>
+        <v>5.8238963697887502e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.42962805656564856</v>
+        <v>0.42967672110847543</v>
       </c>
       <c r="C6" s="0">
-        <v>0.19235491685294634</v>
+        <v>0.19373206912119811</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0092022520692976052</v>
+        <v>0.0092236022745674599</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00066186880788153882</v>
+        <v>0.00066040390305573105</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00060815822848008622</v>
+        <v>0.00061138373497163982</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0613590509545704</v>
+        <v>-0.06166085607544429</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>3.2884884076489485e-05</v>
+        <v>3.2893587903870536e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.37702946969112072</v>
+        <v>0.37748451084232693</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.066765693806821333</v>
+        <v>-0.06597297464795146</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0044190641709149735</v>
+        <v>0.0043633754057018003</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0095670748713542787</v>
+        <v>-0.0099225199918199294</v>
       </c>
       <c r="G7" s="0">
-        <v>0.012600386232878935</v>
+        <v>0.012635727738679218</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0038259705837035479</v>
+        <v>0.0038154310820120796</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0028887608161503042</v>
+        <v>0.0028887501472297794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.2217036530838096</v>
+        <v>0.20906770288107165</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.1269016499594095</v>
+        <v>-0.14055004506722293</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.013249514101887998</v>
+        <v>-0.013303900498121966</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.013405984935775989</v>
+        <v>-0.013411078531683801</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>2.7099098430844305e-05</v>
+        <v>2.7608005148422633e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.0032516369111496284</v>
+        <v>-0.0026353863225832275</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0014558702024811687</v>
+        <v>0.0014559944532082092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.21689696575503065</v>
+        <v>-0.22662739108340996</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.21710824991852384</v>
+        <v>-0.21390782134619021</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0057152482250201822</v>
+        <v>0.0057235821024177406</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.21587833737314274</v>
+        <v>-0.21621381754624408</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0093090988318161663</v>
+        <v>-0.0092697132503841515</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0026131689758155038</v>
+        <v>-0.002625339281969224</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00023028997519626082</v>
+        <v>-0.00022518311336414826</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00082327801063411532</v>
+        <v>0.00082319847125247869</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.051221557401531226</v>
+        <v>-0.061881972463389667</v>
       </c>
       <c r="C10" s="0">
-        <v>0.17591547779815081</v>
+        <v>0.17294962727663682</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0006633848233777908</v>
+        <v>0.00072580196000439974</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0030235751490439201</v>
+        <v>0.003096617690458318</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0005863770230990097</v>
+        <v>-0.00058647285585296022</v>
       </c>
       <c r="I10" s="0">
-        <v>0.038593623075195357</v>
+        <v>0.038972555054344778</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.063676528513595176</v>
+        <v>-0.062154848682023249</v>
       </c>
       <c r="K10" s="0">
-        <v>0.011742253044425749</v>
+        <v>0.011742138176452172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.38896315661451591</v>
+        <v>0.38541603561146931</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.4366445802498935</v>
+        <v>0.43683731142447485</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.011196862766811954</v>
+        <v>-0.011138849047432028</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.036876227829304033</v>
+        <v>-0.030406549168944402</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.031698183146630615</v>
+        <v>-0.031804258207730772</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0010641234879140346</v>
+        <v>-0.0010316077845833114</v>
       </c>
       <c r="I11" s="0">
-        <v>0.062816798587741168</v>
+        <v>0.063283261910339034</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.021558732409073134</v>
+        <v>0.021558698948735633</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.32530668672555629</v>
+        <v>0.25326646730353991</v>
       </c>
       <c r="C12" s="0">
-        <v>0.025919669457066141</v>
+        <v>0.021417680625505572</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.00031962974601958301</v>
+        <v>4.7625882015369696e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00071184677493586225</v>
+        <v>-0.029873685363931923</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.0003810676207830869</v>
+        <v>-0.020651188713947062</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.042200396867423828</v>
+        <v>-0.057143035685722099</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.045963198336863409</v>
+        <v>-0.045946965051849253</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.31812730552326551</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.40523068531172601</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.027059345231267573</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.48392513392660497</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.015058242702613496</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00081804784447067462</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.011824814896156137</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.040926840279354504</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.19882226284264332</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.066229935200547679</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0016828045326199559</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0009759776968826404</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.0002067164103863497</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.050539273261189094</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-8.3768399769201807e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.28881812089211062</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.33976728133153522</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29302903207455167</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.28707722456222295</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.42967672110847543</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.37748451084232693</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.20906770288107165</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.22662739108340996</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>-0.061881972463389667</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.38541603561146931</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.25326646730353991</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.31812730552326551</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.19882226284264332</v>
+        <v>0.19954932779901968</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.066229935200547679</v>
+        <v>-0.059880355735724547</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0016828045326199559</v>
+        <v>-0.0017608737225371139</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0009759776968826404</v>
+        <v>0.0028797365172424424</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.0002067164103863497</v>
+        <v>-0.010257304042081422</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.050539273261189094</v>
+        <v>-0.039338209608421985</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-8.3768399769201807e-05</v>
+        <v>-0.010220971132723244</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.28641290715873285</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.093508043921353812</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.00090482908165362723</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.091958716690504178</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.0092797890829912216</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.47732694402395731</v>
       </c>
     </row>
   </sheetData>
